--- a/MergeAttributesApplication/ProjectDetailsReport.xlsx
+++ b/MergeAttributesApplication/ProjectDetailsReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MergeAttributesApplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Conti_AM\MergeAttributesApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF8B60D-630A-479E-A41A-BEDF79ADC7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E55D9C-CEBC-4691-A474-55D1CEC99B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="378">
   <si>
     <t>Project Name</t>
   </si>
@@ -1531,11 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1568,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1578,14 +1577,17 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>377</v>
+      </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1664,7 +1666,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1686,7 +1688,7 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1720,7 +1722,7 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2295,10 +2297,13 @@
       <c r="C44" t="s">
         <v>96</v>
       </c>
+      <c r="D44" t="s">
+        <v>376</v>
+      </c>
       <c r="E44" t="s">
         <v>22</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4093,7 +4098,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>308</v>
       </c>
@@ -4110,7 +4115,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -4127,7 +4132,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>308</v>
       </c>
@@ -4144,7 +4149,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>308</v>
       </c>
@@ -4161,7 +4166,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>308</v>
       </c>
@@ -4178,7 +4183,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -4195,7 +4200,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -4212,7 +4217,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>308</v>
       </c>
@@ -4229,7 +4234,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>308</v>
       </c>
@@ -4246,7 +4251,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>328</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>328</v>
       </c>
@@ -4280,7 +4285,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>328</v>
       </c>
@@ -4297,7 +4302,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>328</v>
       </c>
@@ -4314,7 +4319,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>328</v>
       </c>
@@ -4331,7 +4336,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>328</v>
       </c>
@@ -4348,7 +4353,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -4365,7 +4370,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>344</v>
       </c>
@@ -4382,7 +4387,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>344</v>
       </c>
@@ -4399,7 +4404,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>344</v>
       </c>
@@ -4416,7 +4421,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>344</v>
       </c>
@@ -4433,7 +4438,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>344</v>
       </c>
@@ -4450,7 +4455,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>344</v>
       </c>
@@ -4467,7 +4472,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>344</v>
       </c>
@@ -4484,7 +4489,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -4501,7 +4506,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -4518,7 +4523,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>344</v>
       </c>
@@ -4535,7 +4540,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>366</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>366</v>
       </c>
@@ -4569,7 +4574,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>372</v>
       </c>
@@ -4587,13 +4592,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F178" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ADAS_PG_SYS_RM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="D2:D178" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
@@ -4605,6 +4603,10 @@
     <hyperlink ref="F47" r:id="rId3" xr:uid="{B17BF9CC-62D9-4CE2-9A87-07DBEBC7B8E0}"/>
     <hyperlink ref="F7" r:id="rId4" xr:uid="{D9995C4C-A0AB-47A4-8BE3-C382AA6DD911}"/>
     <hyperlink ref="F46" r:id="rId5" xr:uid="{90F182D6-119E-49B4-91FF-DF6AC8CA6CB3}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{A5E0990E-517F-4A66-99C7-96F52E631E82}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{BA317E8F-C6FB-401B-87B6-F4974C3930DA}"/>
+    <hyperlink ref="F2" r:id="rId8" xr:uid="{A947727C-571B-4C1E-B66C-F5CBCB9A9B08}"/>
+    <hyperlink ref="F44" r:id="rId9" xr:uid="{909C117E-E4D6-416A-BA94-3F8EC31DD9F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MergeAttributesApplication/ProjectDetailsReport.xlsx
+++ b/MergeAttributesApplication/ProjectDetailsReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Conti_AM\MergeAttributesApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E55D9C-CEBC-4691-A474-55D1CEC99B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF1BE9-FBDF-46E4-89CE-CC9547A491BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="378">
   <si>
     <t>Project Name</t>
   </si>
@@ -1534,14 +1534,14 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" customWidth="1"/>
+    <col min="3" max="3" width="53.54296875" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
@@ -1685,6 +1685,9 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
+      <c r="D8" t="s">
+        <v>376</v>
+      </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -4592,6 +4595,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="D2:D178" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
